--- a/Soil-Data-Raw-R/Soil-Data-RawFolders/Soil N Extractions/MBL Data/OConnellSamples.xlsx
+++ b/Soil-Data-Raw-R/Soil-Data-RawFolders/Soil N Extractions/MBL Data/OConnellSamples.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="41">
   <si>
     <t>Sample Number</t>
   </si>
@@ -133,6 +133,15 @@
   </si>
   <si>
     <t>blank averages</t>
+  </si>
+  <si>
+    <t>DateA</t>
+  </si>
+  <si>
+    <t>DateB</t>
+  </si>
+  <si>
+    <t>aw24</t>
   </si>
 </sst>
 </file>
@@ -192,11 +201,11 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -205,7 +214,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -213,17 +222,17 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -233,7 +242,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -241,12 +250,12 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -255,23 +264,23 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -283,8 +292,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -304,18 +337,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="35">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -653,18 +713,18 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:F53"/>
+  <dimension ref="A2:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="I47" sqref="I47:I49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -672,1008 +732,1252 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>34</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>35</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>41716</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1">
+        <v>41716</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="3">
         <v>1.01556512149822</v>
       </c>
-      <c r="F3" s="3">
+      <c r="H3" s="3">
         <v>0.63300000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>41716</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1">
+        <v>41716</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3">
         <v>0.69228575297941497</v>
       </c>
-      <c r="F4" s="3">
+      <c r="H4" s="3">
         <v>0.622</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>41716</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1">
+        <v>41716</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="3">
         <v>1.8716173966878191</v>
       </c>
-      <c r="F5" s="3">
+      <c r="H5" s="3">
         <v>0.57099999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>41716</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1">
+        <v>41716</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="3">
         <v>0.85924253211577151</v>
       </c>
-      <c r="F6" s="3">
+      <c r="H6" s="3">
         <v>0.48499999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>41716</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1">
+        <v>41716</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="3">
         <v>0.48279221482742607</v>
       </c>
-      <c r="F7" s="3">
+      <c r="H7" s="3">
         <v>0.73399999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>41717</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1">
+        <v>41717</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" t="s">
         <v>4</v>
       </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="3">
         <v>0.73375909301965625</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>0.79500000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="16" thickBot="1">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>41716</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1">
+        <v>41716</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="3">
         <v>0.56361205695712735</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>0.60299999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" s="4">
         <v>41717</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4">
+        <v>41717</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6">
+      <c r="F10" s="5"/>
+      <c r="G10" s="6">
         <v>1.2548343909611515E-2</v>
       </c>
-      <c r="F10" s="7">
+      <c r="H10" s="7">
         <v>2.53E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" s="8">
         <v>41717</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8">
+        <v>41717</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10">
+      <c r="F11" s="9"/>
+      <c r="G11" s="10">
         <v>1.4143472372697724E-2</v>
       </c>
-      <c r="F11" s="11">
+      <c r="H11" s="11">
         <v>0.126</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="16" thickBot="1">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" s="12">
         <v>41717</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12">
+        <v>41717</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14">
+      <c r="F12" s="13"/>
+      <c r="G12" s="14">
         <v>1.2442002012072434E-2</v>
       </c>
-      <c r="F12" s="15">
+      <c r="H12" s="15">
         <v>0.112</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>41718</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1">
+        <v>41718</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" t="s">
         <v>10</v>
       </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="3">
         <v>1.5525917040705772</v>
       </c>
-      <c r="F13" s="3">
+      <c r="H13" s="3">
         <v>0.76900000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>41718</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1">
+        <v>41718</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" t="s">
         <v>11</v>
       </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="3">
         <v>3.360403962234948</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>1.95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>41718</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1">
+        <v>41718</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" t="s">
         <v>12</v>
       </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="3">
         <v>2.0204960532425318</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>0.72399999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>41718</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1">
+        <v>41718</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" t="s">
         <v>13</v>
       </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="3">
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="3">
         <v>3.7751373626373623</v>
       </c>
-      <c r="F16" s="3">
+      <c r="H16" s="3">
         <v>1.5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>41718</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1">
+        <v>41718</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" t="s">
         <v>14</v>
       </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="3">
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="3">
         <v>2.1162037610277045</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>0.67600000000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1">
+        <v>41704</v>
+      </c>
+      <c r="D18" s="1">
+        <v>41717</v>
+      </c>
+      <c r="E18" t="s">
         <v>10</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>2.7967919052778205</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>0.60199999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1">
+        <v>41704</v>
+      </c>
+      <c r="D19" s="1">
+        <v>41717</v>
+      </c>
+      <c r="E19" t="s">
         <v>11</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="3">
+      <c r="G19" s="3">
         <v>1.7227387401331065</v>
       </c>
-      <c r="F19" s="3">
+      <c r="H19" s="3">
         <v>0.436</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1">
+        <v>41704</v>
+      </c>
+      <c r="D20" s="1">
+        <v>41717</v>
+      </c>
+      <c r="E20" t="s">
         <v>12</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F20" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>1.7652754991487385</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>0.48799999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1">
+        <v>41704</v>
+      </c>
+      <c r="D21" s="1">
+        <v>41717</v>
+      </c>
+      <c r="E21" t="s">
         <v>13</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>2.5415713511840274</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>0.495</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" s="2">
         <v>41718</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2">
+        <v>41718</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" t="s">
         <v>19</v>
       </c>
-      <c r="D22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="3">
         <v>9.145403188360933E-2</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>0.93600000000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" s="2">
         <v>41718</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2">
+        <v>41718</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" t="s">
         <v>20</v>
       </c>
-      <c r="D23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="3">
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="3">
         <v>7.2844199814270233E-3</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" s="2">
         <v>41718</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2">
+        <v>41718</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" t="s">
         <v>21</v>
       </c>
-      <c r="D24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="3">
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="3">
         <v>0.3190256926172419</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" s="2">
         <v>41718</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2">
+        <v>41718</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" t="s">
         <v>22</v>
       </c>
-      <c r="D25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="3">
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="3">
         <v>0.84754492338647269</v>
       </c>
-      <c r="F25" s="3">
+      <c r="H25" s="3">
         <v>0.90100000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" s="2">
         <v>41718</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="2">
+        <v>41718</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" t="s">
         <v>23</v>
       </c>
-      <c r="D26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="3">
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="3">
         <v>0.30520124593716141</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>0.79100000000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1">
+        <v>41704</v>
+      </c>
+      <c r="D27" s="1">
+        <v>41717</v>
+      </c>
+      <c r="E27" t="s">
         <v>19</v>
       </c>
-      <c r="D27" t="s">
+      <c r="F27" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>1.9035199659495434</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1">
+        <v>41704</v>
+      </c>
+      <c r="D28" s="1">
+        <v>41717</v>
+      </c>
+      <c r="E28" t="s">
         <v>20</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F28" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="3">
+      <c r="G28" s="3">
         <v>2.201277279058969</v>
       </c>
-      <c r="F28" s="3">
+      <c r="H28" s="3">
         <v>0.82799999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1">
+        <v>41704</v>
+      </c>
+      <c r="D29" s="1">
+        <v>41717</v>
+      </c>
+      <c r="E29" t="s">
         <v>21</v>
       </c>
-      <c r="D29" t="s">
+      <c r="F29" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="3">
+      <c r="G29" s="3">
         <v>2.8605970438012691</v>
       </c>
-      <c r="F29" s="3">
+      <c r="H29" s="3">
         <v>0.73599999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1">
+        <v>41704</v>
+      </c>
+      <c r="D30" s="1">
+        <v>41717</v>
+      </c>
+      <c r="E30" t="s">
         <v>22</v>
       </c>
-      <c r="D30" t="s">
+      <c r="F30" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="3">
+      <c r="G30" s="3">
         <v>1.7440071196409224</v>
       </c>
-      <c r="F30" s="3">
+      <c r="H30" s="3">
         <v>0.51200000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1">
+        <v>41704</v>
+      </c>
+      <c r="D31" s="1">
+        <v>41717</v>
+      </c>
+      <c r="E31" t="s">
         <v>3</v>
       </c>
-      <c r="D31" t="s">
+      <c r="F31" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="3">
+      <c r="G31" s="3">
         <v>11.803950626837949</v>
       </c>
-      <c r="F31" s="3">
+      <c r="H31" s="3">
         <v>0.435</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1">
+        <v>41716</v>
+      </c>
+      <c r="D32" s="1">
+        <v>41723</v>
+      </c>
+      <c r="E32" t="s">
         <v>2</v>
       </c>
-      <c r="D32" t="s">
+      <c r="F32" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>1.7121045503791983</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1">
+        <v>41716</v>
+      </c>
+      <c r="D33" s="1">
+        <v>41723</v>
+      </c>
+      <c r="E33" t="s">
         <v>3</v>
       </c>
-      <c r="D33" t="s">
+      <c r="F33" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>1.1803950626837951</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>0.29299999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1">
+        <v>41716</v>
+      </c>
+      <c r="D34" s="1">
+        <v>41723</v>
+      </c>
+      <c r="E34" t="s">
         <v>4</v>
       </c>
-      <c r="D34" t="s">
+      <c r="F34" t="s">
         <v>17</v>
       </c>
-      <c r="E34" s="3">
+      <c r="G34" s="3">
         <v>2.3076191765980498</v>
       </c>
-      <c r="F34" s="3">
+      <c r="H34" s="3">
         <v>0.29399999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1">
+        <v>41716</v>
+      </c>
+      <c r="D35" s="1">
+        <v>41723</v>
+      </c>
+      <c r="E35" t="s">
         <v>6</v>
       </c>
-      <c r="D35" t="s">
+      <c r="F35" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>1.201663442191611</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>0.39100000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>41724</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1">
+        <v>41724</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" t="s">
         <v>3</v>
       </c>
-      <c r="D36" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" s="3">
+      <c r="F36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="3">
         <v>0.17333729298870143</v>
       </c>
-      <c r="F36" s="3">
+      <c r="H36" s="3">
         <v>0.33800000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>41724</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1">
+        <v>41724</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" t="s">
         <v>4</v>
       </c>
-      <c r="D37" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" s="3">
+      <c r="F37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="3">
         <v>0.27223525770004642</v>
       </c>
-      <c r="F37" s="3">
+      <c r="H37" s="3">
         <v>0.34899999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>41724</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1">
+        <v>41724</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" t="s">
         <v>6</v>
       </c>
-      <c r="D38" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" s="3">
+      <c r="F38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="3">
         <v>0.35730877573131092</v>
       </c>
-      <c r="F38" s="3">
+      <c r="H38" s="3">
         <v>0.40799999999999997</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>41724</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1">
+        <v>41724</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" t="s">
         <v>25</v>
       </c>
-      <c r="D39" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="3">
+      <c r="F39" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="3">
         <v>0.20949353815198885</v>
       </c>
-      <c r="F39" s="3">
+      <c r="H39" s="3">
         <v>0.311</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>41724</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1">
+        <v>41724</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" t="s">
         <v>28</v>
       </c>
-      <c r="D40" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" s="3">
+      <c r="F40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="3">
         <v>0.22544482278285094</v>
       </c>
-      <c r="F40" s="3">
+      <c r="H40" s="3">
         <v>0.38300000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>41724</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="1">
+        <v>41724</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" t="s">
         <v>27</v>
       </c>
-      <c r="D41" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" s="3">
+      <c r="F41" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="3">
         <v>0.36368928958365582</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>0.47699999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" ht="16" thickBot="1">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>41724</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="1">
+        <v>41724</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" t="s">
         <v>26</v>
       </c>
-      <c r="D42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" s="3">
+      <c r="F42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="3">
         <v>0.13186395294845998</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>0.33600000000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43" s="4">
         <v>41723</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="4">
+        <v>41723</v>
+      </c>
+      <c r="D43" s="17"/>
+      <c r="E43" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="6">
+      <c r="F43" s="5"/>
+      <c r="G43" s="6">
         <v>1.4887865655471288E-2</v>
       </c>
-      <c r="F43" s="7">
+      <c r="H43" s="7">
         <v>9.98E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44" s="8">
         <v>41723</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="8">
+        <v>41723</v>
+      </c>
+      <c r="D44" s="18"/>
+      <c r="E44" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D44" s="9"/>
-      <c r="E44" s="10">
+      <c r="F44" s="9"/>
+      <c r="G44" s="10">
         <v>1.4568839962854047E-2</v>
       </c>
-      <c r="F44" s="11">
+      <c r="H44" s="11">
         <v>0.104</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45" s="8">
         <v>41723</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="8">
+        <v>41723</v>
+      </c>
+      <c r="D45" s="18"/>
+      <c r="E45" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="10">
+      <c r="F45" s="9"/>
+      <c r="G45" s="10">
         <v>1.3824446680080482E-2</v>
       </c>
-      <c r="F45" s="11">
+      <c r="H45" s="11">
         <v>0.109</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46" s="8">
         <v>41723</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="8">
+        <v>41723</v>
+      </c>
+      <c r="D46" s="18"/>
+      <c r="E46" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D46" s="9"/>
-      <c r="E46" s="10">
+      <c r="F46" s="9"/>
+      <c r="G46" s="10">
         <v>5.4766077232626525E-2</v>
       </c>
-      <c r="F46" s="11">
+      <c r="H46" s="11">
         <v>8.2600000000000007E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47" s="8">
         <v>41724</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="8">
+        <v>41724</v>
+      </c>
+      <c r="D47" s="18"/>
+      <c r="E47" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="F47" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E47" s="10">
+      <c r="G47" s="10">
         <v>2.36079012536759E-2</v>
       </c>
-      <c r="F47" s="11">
+      <c r="H47" s="11">
         <v>0.105</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I47" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48" s="8">
         <v>41724</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="8">
+        <v>41724</v>
+      </c>
+      <c r="D48" s="18"/>
+      <c r="E48" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="F48" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E48" s="10">
+      <c r="G48" s="10">
         <v>2.0523986225042562E-2</v>
       </c>
-      <c r="F48" s="11">
+      <c r="H48" s="11">
         <v>0.112</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I48" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49" s="8">
         <v>41724</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="8">
+        <v>41724</v>
+      </c>
+      <c r="D49" s="18"/>
+      <c r="E49" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="F49" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="10">
+      <c r="G49" s="10">
         <v>1.7971780684104623E-2</v>
       </c>
-      <c r="F49" s="11">
+      <c r="H49" s="11">
         <v>8.7300000000000003E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I49" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50" s="8">
         <v>41724</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="8">
+        <v>41724</v>
+      </c>
+      <c r="D50" s="18"/>
+      <c r="E50" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="9"/>
-      <c r="E50" s="10">
+      <c r="F50" s="9"/>
+      <c r="G50" s="10">
         <v>1.3611762885002321E-2</v>
       </c>
-      <c r="F50" s="11">
+      <c r="H50" s="11">
         <v>9.1899999999999996E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51" s="8">
         <v>41724</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="8">
+        <v>41724</v>
+      </c>
+      <c r="D51" s="18"/>
+      <c r="E51" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="9"/>
-      <c r="E51" s="10">
+      <c r="F51" s="9"/>
+      <c r="G51" s="10">
         <v>1.6482994118557498E-2</v>
       </c>
-      <c r="F51" s="11">
+      <c r="H51" s="11">
         <v>8.8300000000000003E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" ht="16" thickBot="1">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52" s="12">
         <v>41724</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="12">
+        <v>41724</v>
+      </c>
+      <c r="D52" s="19"/>
+      <c r="E52" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="13"/>
-      <c r="E52" s="14">
+      <c r="F52" s="13"/>
+      <c r="G52" s="14">
         <v>1.5313233245627611E-2</v>
       </c>
-      <c r="F52" s="15">
+      <c r="H52" s="15">
         <v>8.6099999999999996E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D53" s="16" t="s">
+    <row r="53" spans="1:9">
+      <c r="F53" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E53" s="3">
-        <f>AVERAGE(E10:E12,E43:E52)</f>
+      <c r="G53" s="3">
+        <f>AVERAGE(G10:G12,G43:G52)</f>
         <v>1.8822515864417272E-2</v>
       </c>
-      <c r="F53" s="3">
-        <f>AVERAGE(F10:F12,F43:F52)</f>
+      <c r="H53" s="3">
+        <f>AVERAGE(H10:H12,H43:H52)</f>
         <v>9.4561538461538461E-2</v>
       </c>
     </row>

--- a/Soil-Data-Raw-R/Soil-Data-RawFolders/Soil N Extractions/MBL Data/OConnellSamples.xlsx
+++ b/Soil-Data-Raw-R/Soil-Data-RawFolders/Soil N Extractions/MBL Data/OConnellSamples.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
+    <workbookView xWindow="19580" yWindow="0" windowWidth="12620" windowHeight="15500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -183,12 +183,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -280,7 +286,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -316,32 +322,75 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="77">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -359,6 +408,27 @@
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -376,6 +446,27 @@
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -716,7 +807,7 @@
   <dimension ref="A2:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47:I49"/>
+      <selection activeCell="G43" sqref="G43:H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -770,10 +861,10 @@
       <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="14">
         <v>1.01556512149822</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="14">
         <v>0.63300000000000001</v>
       </c>
     </row>
@@ -794,10 +885,10 @@
       <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="14">
         <v>0.69228575297941497</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="14">
         <v>0.622</v>
       </c>
     </row>
@@ -818,10 +909,10 @@
       <c r="F5" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="14">
         <v>1.8716173966878191</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="14">
         <v>0.57099999999999995</v>
       </c>
     </row>
@@ -842,10 +933,10 @@
       <c r="F6" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="14">
         <v>0.85924253211577151</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="14">
         <v>0.48499999999999999</v>
       </c>
     </row>
@@ -866,10 +957,10 @@
       <c r="F7" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="14">
         <v>0.48279221482742607</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="14">
         <v>0.73399999999999999</v>
       </c>
     </row>
@@ -914,10 +1005,10 @@
       <c r="F9" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="14">
         <v>0.56361205695712735</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="14">
         <v>0.60299999999999998</v>
       </c>
     </row>
@@ -931,15 +1022,15 @@
       <c r="C10" s="4">
         <v>41717</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="11"/>
       <c r="E10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="5"/>
-      <c r="G10" s="6">
+      <c r="G10" s="15">
         <v>1.2548343909611515E-2</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="16">
         <v>2.53E-2</v>
       </c>
     </row>
@@ -947,21 +1038,21 @@
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="6">
         <v>41717</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="6">
         <v>41717</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="12"/>
+      <c r="E11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10">
+      <c r="F11" s="7"/>
+      <c r="G11" s="17">
         <v>1.4143472372697724E-2</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="18">
         <v>0.126</v>
       </c>
     </row>
@@ -969,21 +1060,21 @@
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="8">
         <v>41717</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="8">
         <v>41717</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="13" t="s">
+      <c r="D12" s="13"/>
+      <c r="E12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="14">
+      <c r="F12" s="9"/>
+      <c r="G12" s="19">
         <v>1.2442002012072434E-2</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="20">
         <v>0.112</v>
       </c>
     </row>
@@ -1004,10 +1095,10 @@
       <c r="F13" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="14">
         <v>1.5525917040705772</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="14">
         <v>0.76900000000000002</v>
       </c>
     </row>
@@ -1028,10 +1119,10 @@
       <c r="F14" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="14">
         <v>3.360403962234948</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="14">
         <v>1.95</v>
       </c>
     </row>
@@ -1052,10 +1143,10 @@
       <c r="F15" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="14">
         <v>2.0204960532425318</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="14">
         <v>0.72399999999999998</v>
       </c>
     </row>
@@ -1076,10 +1167,10 @@
       <c r="F16" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="14">
         <v>3.7751373626373623</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="14">
         <v>1.5</v>
       </c>
     </row>
@@ -1100,10 +1191,10 @@
       <c r="F17" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="14">
         <v>2.1162037610277045</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="14">
         <v>0.67600000000000005</v>
       </c>
     </row>
@@ -1126,10 +1217,10 @@
       <c r="F18" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="14">
         <v>2.7967919052778205</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="14">
         <v>0.60199999999999998</v>
       </c>
     </row>
@@ -1152,10 +1243,10 @@
       <c r="F19" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="14">
         <v>1.7227387401331065</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="14">
         <v>0.436</v>
       </c>
     </row>
@@ -1178,10 +1269,10 @@
       <c r="F20" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="14">
         <v>1.7652754991487385</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="14">
         <v>0.48799999999999999</v>
       </c>
     </row>
@@ -1204,10 +1295,10 @@
       <c r="F21" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="14">
         <v>2.5415713511840274</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="14">
         <v>0.495</v>
       </c>
     </row>
@@ -1228,10 +1319,10 @@
       <c r="F22" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="14">
         <v>9.145403188360933E-2</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="14">
         <v>0.93600000000000005</v>
       </c>
     </row>
@@ -1252,10 +1343,10 @@
       <c r="F23" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="14">
         <v>7.2844199814270233E-3</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="14">
         <v>1.1100000000000001</v>
       </c>
     </row>
@@ -1276,10 +1367,10 @@
       <c r="F24" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="14">
         <v>0.3190256926172419</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="14">
         <v>0.71499999999999997</v>
       </c>
     </row>
@@ -1300,10 +1391,10 @@
       <c r="F25" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="14">
         <v>0.84754492338647269</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="14">
         <v>0.90100000000000002</v>
       </c>
     </row>
@@ -1324,10 +1415,10 @@
       <c r="F26" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="14">
         <v>0.30520124593716141</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="14">
         <v>0.79100000000000004</v>
       </c>
     </row>
@@ -1350,10 +1441,10 @@
       <c r="F27" t="s">
         <v>17</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="14">
         <v>1.9035199659495434</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="14">
         <v>0.52500000000000002</v>
       </c>
     </row>
@@ -1376,10 +1467,10 @@
       <c r="F28" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="14">
         <v>2.201277279058969</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="14">
         <v>0.82799999999999996</v>
       </c>
     </row>
@@ -1402,10 +1493,10 @@
       <c r="F29" t="s">
         <v>17</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="14">
         <v>2.8605970438012691</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="14">
         <v>0.73599999999999999</v>
       </c>
     </row>
@@ -1428,10 +1519,10 @@
       <c r="F30" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="14">
         <v>1.7440071196409224</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="14">
         <v>0.51200000000000001</v>
       </c>
     </row>
@@ -1454,10 +1545,10 @@
       <c r="F31" t="s">
         <v>17</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="14">
         <v>11.803950626837949</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="14">
         <v>0.435</v>
       </c>
     </row>
@@ -1480,10 +1571,10 @@
       <c r="F32" t="s">
         <v>17</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="14">
         <v>1.7121045503791983</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="14">
         <v>0.33500000000000002</v>
       </c>
     </row>
@@ -1506,10 +1597,10 @@
       <c r="F33" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="14">
         <v>1.1803950626837951</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="14">
         <v>0.29299999999999998</v>
       </c>
     </row>
@@ -1532,10 +1623,10 @@
       <c r="F34" t="s">
         <v>17</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="14">
         <v>2.3076191765980498</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="14">
         <v>0.29399999999999998</v>
       </c>
     </row>
@@ -1558,10 +1649,10 @@
       <c r="F35" t="s">
         <v>17</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="14">
         <v>1.201663442191611</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="14">
         <v>0.39100000000000001</v>
       </c>
     </row>
@@ -1582,10 +1673,10 @@
       <c r="F36" t="s">
         <v>15</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="14">
         <v>0.17333729298870143</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="14">
         <v>0.33800000000000002</v>
       </c>
     </row>
@@ -1606,10 +1697,10 @@
       <c r="F37" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="14">
         <v>0.27223525770004642</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="14">
         <v>0.34899999999999998</v>
       </c>
     </row>
@@ -1630,10 +1721,10 @@
       <c r="F38" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="14">
         <v>0.35730877573131092</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="14">
         <v>0.40799999999999997</v>
       </c>
     </row>
@@ -1654,10 +1745,10 @@
       <c r="F39" t="s">
         <v>15</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="14">
         <v>0.20949353815198885</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="14">
         <v>0.311</v>
       </c>
     </row>
@@ -1678,10 +1769,10 @@
       <c r="F40" t="s">
         <v>15</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" s="14">
         <v>0.22544482278285094</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40" s="14">
         <v>0.38300000000000001</v>
       </c>
     </row>
@@ -1702,10 +1793,10 @@
       <c r="F41" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="14">
         <v>0.36368928958365582</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="14">
         <v>0.47699999999999998</v>
       </c>
     </row>
@@ -1726,10 +1817,10 @@
       <c r="F42" t="s">
         <v>15</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="14">
         <v>0.13186395294845998</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="14">
         <v>0.33600000000000002</v>
       </c>
     </row>
@@ -1743,15 +1834,15 @@
       <c r="C43" s="4">
         <v>41723</v>
       </c>
-      <c r="D43" s="17"/>
+      <c r="D43" s="11"/>
       <c r="E43" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F43" s="5"/>
-      <c r="G43" s="6">
+      <c r="G43" s="15">
         <v>1.4887865655471288E-2</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H43" s="16">
         <v>9.98E-2</v>
       </c>
     </row>
@@ -1759,21 +1850,21 @@
       <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B44" s="6">
         <v>41723</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="6">
         <v>41723</v>
       </c>
-      <c r="D44" s="18"/>
-      <c r="E44" s="9" t="s">
+      <c r="D44" s="12"/>
+      <c r="E44" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="9"/>
-      <c r="G44" s="10">
+      <c r="F44" s="7"/>
+      <c r="G44" s="17">
         <v>1.4568839962854047E-2</v>
       </c>
-      <c r="H44" s="11">
+      <c r="H44" s="18">
         <v>0.104</v>
       </c>
     </row>
@@ -1781,21 +1872,21 @@
       <c r="A45">
         <v>43</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45" s="6">
         <v>41723</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="6">
         <v>41723</v>
       </c>
-      <c r="D45" s="18"/>
-      <c r="E45" s="9" t="s">
+      <c r="D45" s="12"/>
+      <c r="E45" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F45" s="9"/>
-      <c r="G45" s="10">
+      <c r="F45" s="7"/>
+      <c r="G45" s="17">
         <v>1.3824446680080482E-2</v>
       </c>
-      <c r="H45" s="11">
+      <c r="H45" s="18">
         <v>0.109</v>
       </c>
     </row>
@@ -1803,21 +1894,21 @@
       <c r="A46">
         <v>44</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B46" s="6">
         <v>41723</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="6">
         <v>41723</v>
       </c>
-      <c r="D46" s="18"/>
-      <c r="E46" s="9" t="s">
+      <c r="D46" s="12"/>
+      <c r="E46" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F46" s="9"/>
-      <c r="G46" s="10">
+      <c r="F46" s="7"/>
+      <c r="G46" s="17">
         <v>5.4766077232626525E-2</v>
       </c>
-      <c r="H46" s="11">
+      <c r="H46" s="18">
         <v>8.2600000000000007E-2</v>
       </c>
     </row>
@@ -1825,26 +1916,26 @@
       <c r="A47">
         <v>45</v>
       </c>
-      <c r="B47" s="8">
-        <v>41724</v>
-      </c>
-      <c r="C47" s="8">
-        <v>41724</v>
-      </c>
-      <c r="D47" s="18"/>
-      <c r="E47" s="9" t="s">
+      <c r="B47" s="6">
+        <v>41724</v>
+      </c>
+      <c r="C47" s="6">
+        <v>41724</v>
+      </c>
+      <c r="D47" s="12"/>
+      <c r="E47" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F47" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G47" s="10">
+      <c r="G47" s="17">
         <v>2.36079012536759E-2</v>
       </c>
-      <c r="H47" s="11">
+      <c r="H47" s="18">
         <v>0.105</v>
       </c>
-      <c r="I47" s="9" t="s">
+      <c r="I47" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1852,26 +1943,26 @@
       <c r="A48">
         <v>46</v>
       </c>
-      <c r="B48" s="8">
-        <v>41724</v>
-      </c>
-      <c r="C48" s="8">
-        <v>41724</v>
-      </c>
-      <c r="D48" s="18"/>
-      <c r="E48" s="9" t="s">
+      <c r="B48" s="6">
+        <v>41724</v>
+      </c>
+      <c r="C48" s="6">
+        <v>41724</v>
+      </c>
+      <c r="D48" s="12"/>
+      <c r="E48" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F48" s="9" t="s">
+      <c r="F48" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G48" s="10">
+      <c r="G48" s="17">
         <v>2.0523986225042562E-2</v>
       </c>
-      <c r="H48" s="11">
+      <c r="H48" s="18">
         <v>0.112</v>
       </c>
-      <c r="I48" s="9" t="s">
+      <c r="I48" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1879,26 +1970,26 @@
       <c r="A49">
         <v>47</v>
       </c>
-      <c r="B49" s="8">
-        <v>41724</v>
-      </c>
-      <c r="C49" s="8">
-        <v>41724</v>
-      </c>
-      <c r="D49" s="18"/>
-      <c r="E49" s="9" t="s">
+      <c r="B49" s="6">
+        <v>41724</v>
+      </c>
+      <c r="C49" s="6">
+        <v>41724</v>
+      </c>
+      <c r="D49" s="12"/>
+      <c r="E49" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="F49" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G49" s="10">
+      <c r="G49" s="17">
         <v>1.7971780684104623E-2</v>
       </c>
-      <c r="H49" s="11">
+      <c r="H49" s="18">
         <v>8.7300000000000003E-2</v>
       </c>
-      <c r="I49" s="9" t="s">
+      <c r="I49" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1906,21 +1997,21 @@
       <c r="A50">
         <v>48</v>
       </c>
-      <c r="B50" s="8">
-        <v>41724</v>
-      </c>
-      <c r="C50" s="8">
-        <v>41724</v>
-      </c>
-      <c r="D50" s="18"/>
-      <c r="E50" s="9" t="s">
+      <c r="B50" s="6">
+        <v>41724</v>
+      </c>
+      <c r="C50" s="6">
+        <v>41724</v>
+      </c>
+      <c r="D50" s="12"/>
+      <c r="E50" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F50" s="9"/>
-      <c r="G50" s="10">
+      <c r="F50" s="7"/>
+      <c r="G50" s="17">
         <v>1.3611762885002321E-2</v>
       </c>
-      <c r="H50" s="11">
+      <c r="H50" s="18">
         <v>9.1899999999999996E-2</v>
       </c>
     </row>
@@ -1928,21 +2019,21 @@
       <c r="A51">
         <v>49</v>
       </c>
-      <c r="B51" s="8">
-        <v>41724</v>
-      </c>
-      <c r="C51" s="8">
-        <v>41724</v>
-      </c>
-      <c r="D51" s="18"/>
-      <c r="E51" s="9" t="s">
+      <c r="B51" s="6">
+        <v>41724</v>
+      </c>
+      <c r="C51" s="6">
+        <v>41724</v>
+      </c>
+      <c r="D51" s="12"/>
+      <c r="E51" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F51" s="9"/>
-      <c r="G51" s="10">
+      <c r="F51" s="7"/>
+      <c r="G51" s="17">
         <v>1.6482994118557498E-2</v>
       </c>
-      <c r="H51" s="11">
+      <c r="H51" s="18">
         <v>8.8300000000000003E-2</v>
       </c>
     </row>
@@ -1950,26 +2041,26 @@
       <c r="A52">
         <v>50</v>
       </c>
-      <c r="B52" s="12">
-        <v>41724</v>
-      </c>
-      <c r="C52" s="12">
-        <v>41724</v>
-      </c>
-      <c r="D52" s="19"/>
-      <c r="E52" s="13" t="s">
+      <c r="B52" s="8">
+        <v>41724</v>
+      </c>
+      <c r="C52" s="8">
+        <v>41724</v>
+      </c>
+      <c r="D52" s="13"/>
+      <c r="E52" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F52" s="13"/>
-      <c r="G52" s="14">
+      <c r="F52" s="9"/>
+      <c r="G52" s="19">
         <v>1.5313233245627611E-2</v>
       </c>
-      <c r="H52" s="15">
+      <c r="H52" s="20">
         <v>8.6099999999999996E-2</v>
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="F53" s="16" t="s">
+      <c r="F53" s="10" t="s">
         <v>37</v>
       </c>
       <c r="G53" s="3">
